--- a/ExcelExamples/InterpLinearExample.xlsx
+++ b/ExcelExamples/InterpLinearExample.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Interp (various sizes)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>knownX</t>
   </si>
@@ -38,13 +38,16 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>QSA.InterpLinear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +58,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,13 +86,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,14 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,193 +447,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
-        <f ca="1">_xll.QSA.InterpLinear(B3:B5,C3:C5,C8)</f>
+      <c r="C10" s="6">
+        <f>_xll.QSA.InterpLinear(B4:B6,C4:C6,C9)</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C13" s="4">
-        <f t="array" aca="1" ref="C13:C15" ca="1">_xll.QSA.InterpLinear(B3:B5,C3:C5,B13:B15)</f>
+      <c r="C14" s="6">
+        <f t="array" ref="C14:C16">_xll.QSA.InterpLinear(B4:B6,C4:C6,B14:B16)</f>
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>1.2</v>
       </c>
-      <c r="C14" s="4">
-        <f ca="1"/>
+      <c r="C15" s="6">
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <v>1.3</v>
       </c>
-      <c r="C15" s="4">
-        <f ca="1"/>
+      <c r="C16" s="6">
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
-        <f t="array" aca="1" ref="C19:E19" ca="1">_xll.QSA.InterpLinear(B3:B5,C3:C5,C18:E18)</f>
+      <c r="C20" s="6">
+        <f t="array" ref="C20:E20">_xll.QSA.InterpLinear(B4:B6,C4:C6,C19:E19)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="D19" s="4">
-        <f ca="1"/>
+      <c r="D20" s="6">
         <v>5.2</v>
       </c>
-      <c r="E19" s="4">
-        <f ca="1"/>
+      <c r="E20" s="6">
         <v>5.3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
         <v>1.3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4">
-        <f t="array" aca="1" ref="C25:D26" ca="1">_xll.QSA.InterpLinear(B3:B5,C3:C5,C23:D24)</f>
+      <c r="C26" s="6">
+        <f t="array" ref="C26:D27">_xll.QSA.InterpLinear(B4:B6,C4:C6,C24:D25)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="D25" s="4">
-        <f ca="1"/>
+      <c r="D26" s="6">
         <v>4.3</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="4">
-        <f ca="1"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
         <v>4.3</v>
       </c>
-      <c r="D26" s="4">
-        <f ca="1"/>
+      <c r="D27" s="6">
         <v>4.5</v>
       </c>
     </row>
